--- a/Data/V 1.1.0/12-17-19.xlsx
+++ b/Data/V 1.1.0/12-17-19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Desktop\Continuous Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Desktop\Repository\WirelessSensorNetwork\Data\V 1.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951F7EB-B563-4DBD-872C-CBA0E969F4B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B82CD-B706-4AFA-A1A4-A51255F8A81A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,7 +870,7 @@
   <dimension ref="A1:B4470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -892,7 +892,7 @@
         <v>1576594533</v>
       </c>
       <c r="B2" s="1">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
